--- a/data/Dialog/Drama/big_sister.xlsx
+++ b/data/Dialog/Drama/big_sister.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t xml:space="preserve">...Hehe, a new Little One has come to us, #bigdaddy. No longer lost. From now on, we'll protect her, no matter what... right, #bigdaddy?
 Thank you, angel...Hey, #bigdaddy, do you think angels really exist? If there really were angels, how wonderful that would be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modAffinity</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -537,12 +540,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K33" sqref="K33"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -642,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="13.8">
@@ -658,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="35.05">
@@ -674,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="46.25">
@@ -690,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="35.05">
@@ -706,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="35.05">
@@ -720,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -739,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="13.8">
@@ -789,50 +792,70 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="91">
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" ht="12.8">
-      <c r="A31" s="1" t="s">
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="29" ht="12.8">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" ht="57.45">
-      <c r="H32" s="1">
+    <row r="32" ht="12.8">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" ht="57.45">
+      <c r="H33" s="1">
         <v>9</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" ht="23.85">
-      <c r="H33" s="1">
-        <v>10</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="K33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" ht="12.8">
-      <c r="B34" s="1" t="s">
+    <row r="34" ht="23.85">
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8">
+      <c r="D35" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="B36" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
